--- a/ทะเบียนสินทรัพย์.xlsx
+++ b/ทะเบียนสินทรัพย์.xlsx
@@ -5,18 +5,20 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program_asset_register\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7800"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7800" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="จอ" sheetId="1" r:id="rId1"/>
-    <sheet name="คอม" sheetId="2" r:id="rId2"/>
-    <sheet name="Ain1" sheetId="3" r:id="rId3"/>
-    <sheet name="NoteBook" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId3"/>
+    <sheet name="คอม" sheetId="2" r:id="rId4"/>
+    <sheet name="Ain1" sheetId="3" r:id="rId5"/>
+    <sheet name="NoteBook" sheetId="4" r:id="rId6"/>
+    <sheet name="เครื่องปริ้น" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="112">
   <si>
     <t>ทะเบียนอุปกรณ์ คอมพิวเตอร์</t>
   </si>
@@ -315,30 +317,6 @@
     <t>บริหาร</t>
   </si>
   <si>
-    <t>รหัสประเภท</t>
-  </si>
-  <si>
-    <t>ชื่อประเภท</t>
-  </si>
-  <si>
-    <t>จอ</t>
-  </si>
-  <si>
-    <t>เครื่อง PC</t>
-  </si>
-  <si>
-    <t>2in1</t>
-  </si>
-  <si>
-    <t>Note Book</t>
-  </si>
-  <si>
-    <t>เมาส์</t>
-  </si>
-  <si>
-    <t>คีย์บอร์ด</t>
-  </si>
-  <si>
     <t>ห้องประชุม 1</t>
   </si>
   <si>
@@ -349,13 +327,52 @@
   </si>
   <si>
     <t>ทะเบียนอุปกรณ์ All in1</t>
+  </si>
+  <si>
+    <t>ยี่ห้อ</t>
+  </si>
+  <si>
+    <t>TL2000626</t>
+  </si>
+  <si>
+    <t>FUJI</t>
+  </si>
+  <si>
+    <t>จำนวน</t>
+  </si>
+  <si>
+    <t>RICOH</t>
+  </si>
+  <si>
+    <t>L7186451627</t>
+  </si>
+  <si>
+    <t>FESON</t>
+  </si>
+  <si>
+    <t>ปริ้นบิล</t>
+  </si>
+  <si>
+    <t>J8CF011313</t>
+  </si>
+  <si>
+    <t>J8DF280417</t>
+  </si>
+  <si>
+    <t>PQNF00678</t>
+  </si>
+  <si>
+    <t>Cannon</t>
+  </si>
+  <si>
+    <t>MTPA143262</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -383,13 +400,26 @@
       <name val="TH Sarabun New"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Angsana New"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -412,7 +442,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -698,8 +730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D86" sqref="D86"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30.75"/>
@@ -1556,17 +1588,17 @@
     </row>
     <row r="82" spans="3:4">
       <c r="D82" s="1" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="83" spans="3:4">
       <c r="D83" s="1" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="85" spans="3:4">
       <c r="D85" s="1" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1574,16 +1606,44 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D83"/>
+      <selection activeCell="D4" sqref="D3:D83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30.75"/>
@@ -2404,7 +2464,7 @@
         <v>10</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="81" spans="3:4">
@@ -2412,7 +2472,7 @@
         <v>10</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="82" spans="3:4">
@@ -2425,7 +2485,7 @@
         <v>10</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -2433,11 +2493,11 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
@@ -2455,7 +2515,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="4" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -2558,7 +2618,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
@@ -2639,7 +2699,7 @@
         <v>10</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2647,7 +2707,7 @@
         <v>10</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2655,7 +2715,7 @@
         <v>10</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -2667,59 +2727,221 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="25.140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1"/>
+    <col min="4" max="4" width="47.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="B2" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="B3" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="B4" s="3" t="s">
+    <row r="1" spans="1:5" ht="30.75">
+      <c r="A1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+    </row>
+    <row r="2" spans="1:5" ht="30.75">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="30.75">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="30.75">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30.75">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
       <c r="B5" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="B6" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="B7" s="3" t="s">
-        <v>102</v>
+        <v>106</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30.75">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="30.75">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30.75">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="30.75">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="30.75">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="30.75">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="30.75">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="30.75">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30.75">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30.75">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30.75">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="30.75">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="30.75">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="30.75">
+      <c r="A19" s="1">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ทะเบียนสินทรัพย์.xlsx
+++ b/ทะเบียนสินทรัพย์.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="130">
   <si>
     <t>ทะเบียนอุปกรณ์ คอมพิวเตอร์</t>
   </si>
@@ -394,6 +394,30 @@
   </si>
   <si>
     <t>AKVF51A002871</t>
+  </si>
+  <si>
+    <t>US00233307</t>
+  </si>
+  <si>
+    <t>ZQ0A71617000422</t>
+  </si>
+  <si>
+    <t>Asus</t>
+  </si>
+  <si>
+    <t>X16-96084</t>
+  </si>
+  <si>
+    <t>คลังสินค้า</t>
+  </si>
+  <si>
+    <t>ETP780I774SL0</t>
+  </si>
+  <si>
+    <t>พี่เอก</t>
+  </si>
+  <si>
+    <t>ETP780I25ISL0</t>
   </si>
 </sst>
 </file>
@@ -746,14 +770,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30.75"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="4" width="20.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="22.85546875" style="1" customWidth="1"/>
     <col min="6" max="6" width="18.140625" style="1" customWidth="1"/>
   </cols>
@@ -1027,6 +1053,9 @@
       <c r="B20" s="1">
         <v>5100350</v>
       </c>
+      <c r="C20" s="1" t="s">
+        <v>129</v>
+      </c>
       <c r="E20" s="1" t="s">
         <v>10</v>
       </c>
@@ -1364,6 +1393,9 @@
       <c r="B53" s="1">
         <v>5800506</v>
       </c>
+      <c r="D53" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="E53" s="1" t="s">
         <v>54</v>
       </c>
@@ -1375,6 +1407,9 @@
       <c r="B54" s="1">
         <v>5800507</v>
       </c>
+      <c r="D54" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="E54" s="1" t="s">
         <v>64</v>
       </c>
@@ -1493,6 +1528,12 @@
       <c r="B65" s="1">
         <v>5900239</v>
       </c>
+      <c r="C65" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>114</v>
+      </c>
       <c r="E65" s="1" t="s">
         <v>36</v>
       </c>
@@ -1504,6 +1545,9 @@
       <c r="B66" s="1">
         <v>4104709011</v>
       </c>
+      <c r="D66" s="1" t="s">
+        <v>111</v>
+      </c>
       <c r="E66" s="1" t="s">
         <v>37</v>
       </c>
@@ -1662,7 +1706,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="81" spans="5:6">
+    <row r="81" spans="3:6">
       <c r="E81" s="1" t="s">
         <v>90</v>
       </c>
@@ -1670,17 +1714,31 @@
         <v>94</v>
       </c>
     </row>
-    <row r="82" spans="5:6">
+    <row r="82" spans="3:6">
       <c r="F82" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="83" spans="5:6">
+    <row r="83" spans="3:6">
       <c r="F83" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="85" spans="5:6">
+    <row r="84" spans="3:6">
+      <c r="C84" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="85" spans="3:6">
       <c r="F85" s="1" t="s">
         <v>105</v>
       </c>
@@ -1699,7 +1757,7 @@
   <dimension ref="A1:F83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30.75"/>
@@ -1818,6 +1876,9 @@
       <c r="B8" s="1">
         <v>5800347</v>
       </c>
+      <c r="C8" s="1" t="s">
+        <v>115</v>
+      </c>
       <c r="D8" s="1" t="s">
         <v>110</v>
       </c>
@@ -1833,7 +1894,7 @@
         <v>5800326</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>110</v>
@@ -1961,6 +2022,9 @@
       </c>
     </row>
     <row r="18" spans="1:6">
+      <c r="D18" s="1" t="s">
+        <v>111</v>
+      </c>
       <c r="E18" s="1" t="s">
         <v>10</v>
       </c>
@@ -2295,6 +2359,9 @@
       <c r="B52" s="1">
         <v>5400032</v>
       </c>
+      <c r="D52" s="1" t="s">
+        <v>111</v>
+      </c>
       <c r="E52" s="1" t="s">
         <v>54</v>
       </c>
@@ -2306,6 +2373,9 @@
       <c r="B53" s="1">
         <v>5400341</v>
       </c>
+      <c r="D53" s="1" t="s">
+        <v>111</v>
+      </c>
       <c r="E53" s="1" t="s">
         <v>64</v>
       </c>
@@ -2413,6 +2483,9 @@
       <c r="C63" s="1" t="s">
         <v>108</v>
       </c>
+      <c r="D63" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="E63" s="1" t="s">
         <v>36</v>
       </c>
@@ -2598,7 +2671,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="81" spans="5:6">
+    <row r="81" spans="4:6">
       <c r="E81" s="1" t="s">
         <v>10</v>
       </c>
@@ -2606,12 +2679,18 @@
         <v>104</v>
       </c>
     </row>
-    <row r="82" spans="5:6">
+    <row r="82" spans="4:6">
+      <c r="D82" s="1" t="s">
+        <v>111</v>
+      </c>
       <c r="E82" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="83" spans="5:6">
+        <v>128</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="83" spans="4:6">
       <c r="E83" s="1" t="s">
         <v>10</v>
       </c>
@@ -2630,29 +2709,31 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30.75"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="19.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" style="1" customWidth="1"/>
+    <col min="2" max="4" width="19.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" s="4" t="s">
         <v>106</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2660,89 +2741,101 @@
         <v>49</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:6">
       <c r="B3" s="1">
         <v>5300270</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="C4" s="1" t="s">
+    <row r="4" spans="1:6">
+      <c r="E4" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:6">
       <c r="B5" s="1">
         <v>5600135</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="F5" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="B6" s="1">
         <v>5600136</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="F6" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="B7" s="1">
         <v>5400013</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="F7" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="B8" s="1">
         <v>5600130</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="F8" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="B9" s="1">
         <v>5600134</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/ทะเบียนสินทรัพย์.xlsx
+++ b/ทะเบียนสินทรัพย์.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program_asset_register\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7800"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7800" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="จอ" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="131">
   <si>
     <t>ทะเบียนอุปกรณ์ คอมพิวเตอร์</t>
   </si>
@@ -418,6 +418,9 @@
   </si>
   <si>
     <t>ETP780I25ISL0</t>
+  </si>
+  <si>
+    <t>ETP780I308320</t>
   </si>
 </sst>
 </file>
@@ -482,10 +485,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -770,8 +773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30.75"/>
@@ -785,14 +788,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
@@ -888,6 +891,9 @@
       <c r="B8" s="1">
         <v>5100338</v>
       </c>
+      <c r="C8" s="1" t="s">
+        <v>115</v>
+      </c>
       <c r="D8" s="1" t="s">
         <v>114</v>
       </c>
@@ -1041,6 +1047,12 @@
     <row r="19" spans="1:6">
       <c r="B19" s="1">
         <v>5100318</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>114</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>83</v>
@@ -1756,7 +1768,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F83"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -1770,14 +1782,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
@@ -1814,7 +1826,7 @@
       <c r="B4" s="1">
         <v>5500097</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>118</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -1876,9 +1888,6 @@
       <c r="B8" s="1">
         <v>5800347</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>115</v>
-      </c>
       <c r="D8" s="1" t="s">
         <v>110</v>
       </c>
@@ -1952,7 +1961,7 @@
       <c r="B13" s="1">
         <v>5400030</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="4" t="s">
         <v>118</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -1966,7 +1975,7 @@
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>118</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -2013,6 +2022,9 @@
     <row r="17" spans="1:6">
       <c r="B17" s="1">
         <v>5400021</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>111</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>83</v>
@@ -2724,14 +2736,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
@@ -2859,12 +2871,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">

--- a/ทะเบียนสินทรัพย์.xlsx
+++ b/ทะเบียนสินทรัพย์.xlsx
@@ -16,7 +16,6 @@
     <sheet name="คอม" sheetId="2" r:id="rId2"/>
     <sheet name="Ain1" sheetId="3" r:id="rId3"/>
     <sheet name="NoteBook" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="143">
   <si>
     <t>ทะเบียนอุปกรณ์ คอมพิวเตอร์</t>
   </si>
@@ -315,30 +314,6 @@
     <t>บริหาร</t>
   </si>
   <si>
-    <t>รหัสประเภท</t>
-  </si>
-  <si>
-    <t>ชื่อประเภท</t>
-  </si>
-  <si>
-    <t>จอ</t>
-  </si>
-  <si>
-    <t>เครื่อง PC</t>
-  </si>
-  <si>
-    <t>2in1</t>
-  </si>
-  <si>
-    <t>Note Book</t>
-  </si>
-  <si>
-    <t>เมาส์</t>
-  </si>
-  <si>
-    <t>คีย์บอร์ด</t>
-  </si>
-  <si>
     <t>ห้องประชุม 1</t>
   </si>
   <si>
@@ -348,9 +323,6 @@
     <t>ห้อง IT</t>
   </si>
   <si>
-    <t>ทะเบียนอุปกรณ์ All in1</t>
-  </si>
-  <si>
     <t>รหัสทะเบียน</t>
   </si>
   <si>
@@ -421,6 +393,69 @@
   </si>
   <si>
     <t>ETP780I308320</t>
+  </si>
+  <si>
+    <t>US00233328</t>
+  </si>
+  <si>
+    <t>US00233262</t>
+  </si>
+  <si>
+    <t>US00233288</t>
+  </si>
+  <si>
+    <t>US00233341</t>
+  </si>
+  <si>
+    <t>S100LYJ6</t>
+  </si>
+  <si>
+    <t>US00233261</t>
+  </si>
+  <si>
+    <t>พี่ล่า</t>
+  </si>
+  <si>
+    <t>พี่โต้ง</t>
+  </si>
+  <si>
+    <t>US00172228</t>
+  </si>
+  <si>
+    <t>US00128021</t>
+  </si>
+  <si>
+    <t>US00127985</t>
+  </si>
+  <si>
+    <t>PBTGYL0</t>
+  </si>
+  <si>
+    <t>S100NGEP</t>
+  </si>
+  <si>
+    <t>PHILIPS</t>
+  </si>
+  <si>
+    <t>SAMSONG</t>
+  </si>
+  <si>
+    <t>ทะเบียนอุปกรณ์ All in One</t>
+  </si>
+  <si>
+    <t>ETLP20D02004813C2A8511</t>
+  </si>
+  <si>
+    <t>พี่อัม</t>
+  </si>
+  <si>
+    <t>VS80333962</t>
+  </si>
+  <si>
+    <t>การเงิน</t>
+  </si>
+  <si>
+    <t>PR</t>
   </si>
 </sst>
 </file>
@@ -476,7 +511,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -484,7 +519,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -773,8 +807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F85"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30.75"/>
@@ -788,27 +822,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>2</v>
@@ -822,7 +856,7 @@
         <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>3</v>
@@ -836,7 +870,7 @@
         <v>5500100</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>6</v>
@@ -847,7 +881,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="D5" s="1" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>50</v>
@@ -861,10 +895,10 @@
         <v>5500425</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>7</v>
@@ -878,7 +912,7 @@
         <v>5400004</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>9</v>
@@ -892,10 +926,10 @@
         <v>5100338</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>10</v>
@@ -909,10 +943,10 @@
         <v>5800352</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>10</v>
@@ -929,7 +963,7 @@
         <v>4202599642</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>62</v>
@@ -946,7 +980,7 @@
         <v>4202600742</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>62</v>
@@ -960,7 +994,7 @@
         <v>5300091</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>11</v>
@@ -971,7 +1005,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="D13" s="1" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>51</v>
@@ -985,7 +1019,7 @@
         <v>5500104</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>12</v>
@@ -996,7 +1030,7 @@
     </row>
     <row r="15" spans="1:6">
       <c r="D15" s="1" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>52</v>
@@ -1010,7 +1044,7 @@
         <v>11</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>14</v>
@@ -1024,7 +1058,7 @@
         <v>12</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>13</v>
@@ -1035,7 +1069,7 @@
     </row>
     <row r="18" spans="1:6">
       <c r="D18" s="1" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>63</v>
@@ -1049,10 +1083,10 @@
         <v>5100318</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>83</v>
@@ -1066,7 +1100,7 @@
         <v>5100350</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>10</v>
@@ -1079,11 +1113,14 @@
       <c r="B21" s="1">
         <v>5800364</v>
       </c>
+      <c r="D21" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="E21" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>16</v>
+        <v>141</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1094,7 +1131,7 @@
         <v>9</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>16</v>
+        <v>141</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1105,13 +1142,16 @@
         <v>18</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>16</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="B24" s="1">
         <v>5500105</v>
       </c>
+      <c r="D24" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="E24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1120,6 +1160,9 @@
       </c>
     </row>
     <row r="25" spans="1:6">
+      <c r="D25" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="E25" s="1" t="s">
         <v>37</v>
       </c>
@@ -1131,6 +1174,9 @@
       <c r="A26" s="1">
         <v>79</v>
       </c>
+      <c r="D26" s="1" t="s">
+        <v>135</v>
+      </c>
       <c r="E26" s="1" t="s">
         <v>20</v>
       </c>
@@ -1142,6 +1188,9 @@
       <c r="B27" s="1">
         <v>5800361</v>
       </c>
+      <c r="D27" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="E27" s="1" t="s">
         <v>14</v>
       </c>
@@ -1153,6 +1202,9 @@
       <c r="B28" s="1">
         <v>5700421</v>
       </c>
+      <c r="D28" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="E28" s="1" t="s">
         <v>21</v>
       </c>
@@ -1164,6 +1216,9 @@
       <c r="B29" s="1">
         <v>5500111</v>
       </c>
+      <c r="D29" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="E29" s="1" t="s">
         <v>22</v>
       </c>
@@ -1172,6 +1227,9 @@
       </c>
     </row>
     <row r="30" spans="1:6">
+      <c r="D30" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="E30" s="1" t="s">
         <v>53</v>
       </c>
@@ -1180,6 +1238,9 @@
       </c>
     </row>
     <row r="31" spans="1:6">
+      <c r="D31" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="E31" s="1" t="s">
         <v>23</v>
       </c>
@@ -1188,6 +1249,9 @@
       </c>
     </row>
     <row r="32" spans="1:6">
+      <c r="D32" s="1" t="s">
+        <v>135</v>
+      </c>
       <c r="E32" s="1" t="s">
         <v>24</v>
       </c>
@@ -1196,6 +1260,9 @@
       </c>
     </row>
     <row r="33" spans="1:6">
+      <c r="D33" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="E33" s="1" t="s">
         <v>32</v>
       </c>
@@ -1207,6 +1274,9 @@
       <c r="A34" s="1">
         <v>30</v>
       </c>
+      <c r="D34" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="E34" s="1" t="s">
         <v>58</v>
       </c>
@@ -1218,6 +1288,9 @@
       <c r="A35" s="1">
         <v>31</v>
       </c>
+      <c r="D35" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="E35" s="1" t="s">
         <v>59</v>
       </c>
@@ -1229,6 +1302,9 @@
       <c r="A36" s="1">
         <v>35</v>
       </c>
+      <c r="D36" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="E36" s="1" t="s">
         <v>60</v>
       </c>
@@ -1240,8 +1316,11 @@
       <c r="A37" s="1">
         <v>76</v>
       </c>
+      <c r="D37" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="E37" s="1" t="s">
-        <v>60</v>
+        <v>128</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>16</v>
@@ -1251,6 +1330,9 @@
       <c r="B38" s="1">
         <v>5700413</v>
       </c>
+      <c r="D38" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="E38" s="1" t="s">
         <v>25</v>
       </c>
@@ -1273,10 +1355,24 @@
       <c r="A40" s="1">
         <v>60</v>
       </c>
+      <c r="D40" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="E40" s="1" t="s">
         <v>73</v>
       </c>
       <c r="F40" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="D41" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F41" s="1" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1284,6 +1380,9 @@
       <c r="A42" s="1">
         <v>48</v>
       </c>
+      <c r="D42" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="E42" s="1" t="s">
         <v>69</v>
       </c>
@@ -1306,6 +1405,9 @@
       <c r="A44" s="1">
         <v>44</v>
       </c>
+      <c r="D44" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="E44" s="1" t="s">
         <v>71</v>
       </c>
@@ -1317,6 +1419,9 @@
       <c r="A45" s="1">
         <v>57</v>
       </c>
+      <c r="D45" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="E45" s="1" t="s">
         <v>72</v>
       </c>
@@ -1383,6 +1488,9 @@
       <c r="B51" s="1">
         <v>5900285</v>
       </c>
+      <c r="D51" s="1" t="s">
+        <v>135</v>
+      </c>
       <c r="E51" s="1" t="s">
         <v>79</v>
       </c>
@@ -1406,7 +1514,7 @@
         <v>5800506</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>54</v>
@@ -1420,7 +1528,7 @@
         <v>5800507</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>64</v>
@@ -1541,10 +1649,10 @@
         <v>5900239</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>36</v>
@@ -1558,7 +1666,7 @@
         <v>4104709011</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>37</v>
@@ -1728,31 +1836,31 @@
     </row>
     <row r="82" spans="3:6">
       <c r="F82" s="1" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="83" spans="3:6">
       <c r="F83" s="1" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="84" spans="3:6">
       <c r="C84" s="1" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
     </row>
     <row r="85" spans="3:6">
       <c r="F85" s="1" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1768,8 +1876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30.75"/>
@@ -1782,27 +1890,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>2</v>
@@ -1813,7 +1921,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="D3" s="1" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>3</v>
@@ -1826,11 +1934,11 @@
       <c r="B4" s="1">
         <v>5500097</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>118</v>
+      <c r="C4" s="3" t="s">
+        <v>109</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>6</v>
@@ -1844,7 +1952,7 @@
         <v>5500092</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>50</v>
@@ -1858,10 +1966,10 @@
         <v>5700425</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>7</v>
@@ -1875,7 +1983,7 @@
         <v>5800348</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>9</v>
@@ -1889,7 +1997,7 @@
         <v>5800347</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>10</v>
@@ -1903,10 +2011,10 @@
         <v>5800326</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>10</v>
@@ -1920,7 +2028,7 @@
         <v>5500182</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>11</v>
@@ -1934,7 +2042,7 @@
         <v>5400031</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>51</v>
@@ -1948,7 +2056,7 @@
         <v>5500104</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>12</v>
@@ -1961,11 +2069,11 @@
       <c r="B13" s="1">
         <v>5400030</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>118</v>
+      <c r="C13" s="3" t="s">
+        <v>109</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>52</v>
@@ -1975,11 +2083,11 @@
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="C14" s="4" t="s">
-        <v>118</v>
+      <c r="C14" s="3" t="s">
+        <v>109</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>14</v>
@@ -1993,7 +2101,7 @@
         <v>5400022</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>13</v>
@@ -2007,10 +2115,10 @@
         <v>5700435</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>63</v>
@@ -2024,7 +2132,7 @@
         <v>5400021</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>83</v>
@@ -2035,7 +2143,7 @@
     </row>
     <row r="18" spans="1:6">
       <c r="D18" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>10</v>
@@ -2048,6 +2156,12 @@
       <c r="B19" s="1">
         <v>5800339</v>
       </c>
+      <c r="C19" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="E19" s="1" t="s">
         <v>17</v>
       </c>
@@ -2078,6 +2192,9 @@
       <c r="A22" s="1">
         <v>4</v>
       </c>
+      <c r="D22" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="E22" s="1" t="s">
         <v>19</v>
       </c>
@@ -2086,6 +2203,12 @@
       </c>
     </row>
     <row r="23" spans="1:6">
+      <c r="C23" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="E23" s="1" t="s">
         <v>37</v>
       </c>
@@ -2097,6 +2220,9 @@
       <c r="B24" s="1">
         <v>5700120</v>
       </c>
+      <c r="D24" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="E24" s="1" t="s">
         <v>20</v>
       </c>
@@ -2108,6 +2234,12 @@
       <c r="B25" s="1">
         <v>5800350</v>
       </c>
+      <c r="C25" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="E25" s="1" t="s">
         <v>14</v>
       </c>
@@ -2119,6 +2251,9 @@
       <c r="A26" s="1">
         <v>38</v>
       </c>
+      <c r="D26" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="E26" s="1" t="s">
         <v>21</v>
       </c>
@@ -2130,6 +2265,9 @@
       <c r="B27" s="1">
         <v>5400029</v>
       </c>
+      <c r="D27" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="E27" s="1" t="s">
         <v>22</v>
       </c>
@@ -2141,6 +2279,9 @@
       <c r="B28" s="1">
         <v>5500094</v>
       </c>
+      <c r="D28" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="E28" s="1" t="s">
         <v>53</v>
       </c>
@@ -2152,6 +2293,12 @@
       <c r="B29" s="1">
         <v>5800332</v>
       </c>
+      <c r="C29" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="E29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2163,6 +2310,12 @@
       <c r="B30" s="1">
         <v>5900232</v>
       </c>
+      <c r="C30" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="E30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2174,6 +2327,12 @@
       <c r="B31" s="1">
         <v>5800338</v>
       </c>
+      <c r="C31" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="E31" s="1" t="s">
         <v>32</v>
       </c>
@@ -2185,6 +2344,9 @@
       <c r="A32" s="1">
         <v>14</v>
       </c>
+      <c r="D32" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="E32" s="1" t="s">
         <v>58</v>
       </c>
@@ -2196,6 +2358,9 @@
       <c r="B33" s="1">
         <v>5500090</v>
       </c>
+      <c r="D33" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="E33" s="1" t="s">
         <v>59</v>
       </c>
@@ -2207,6 +2372,9 @@
       <c r="A34" s="1">
         <v>73</v>
       </c>
+      <c r="D34" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="E34" s="1" t="s">
         <v>60</v>
       </c>
@@ -2218,8 +2386,11 @@
       <c r="A35" s="1">
         <v>76</v>
       </c>
+      <c r="D35" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="E35" s="1" t="s">
-        <v>60</v>
+        <v>128</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>16</v>
@@ -2229,6 +2400,12 @@
       <c r="B36" s="1">
         <v>5700420</v>
       </c>
+      <c r="C36" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="E36" s="1" t="s">
         <v>25</v>
       </c>
@@ -2248,6 +2425,12 @@
       <c r="B38" s="1">
         <v>5700123</v>
       </c>
+      <c r="C38" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="E38" s="1" t="s">
         <v>73</v>
       </c>
@@ -2255,7 +2438,27 @@
         <v>16</v>
       </c>
     </row>
+    <row r="39" spans="1:6">
+      <c r="C39" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
     <row r="40" spans="1:6">
+      <c r="C40" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="E40" s="1" t="s">
         <v>69</v>
       </c>
@@ -2275,6 +2478,9 @@
       <c r="B42" s="1">
         <v>5400023</v>
       </c>
+      <c r="D42" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="E42" s="1" t="s">
         <v>71</v>
       </c>
@@ -2286,6 +2492,9 @@
       <c r="B43" s="1">
         <v>5800336</v>
       </c>
+      <c r="D43" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="E43" s="1" t="s">
         <v>72</v>
       </c>
@@ -2349,6 +2558,12 @@
       <c r="B49" s="1">
         <v>5900293</v>
       </c>
+      <c r="C49" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="E49" s="1" t="s">
         <v>79</v>
       </c>
@@ -2372,7 +2587,7 @@
         <v>5400032</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>54</v>
@@ -2386,7 +2601,7 @@
         <v>5400341</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>64</v>
@@ -2493,10 +2708,10 @@
         <v>5900231</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>36</v>
@@ -2680,7 +2895,7 @@
         <v>10</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="81" spans="4:6">
@@ -2688,18 +2903,18 @@
         <v>10</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="82" spans="4:6">
       <c r="D82" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
     </row>
     <row r="83" spans="4:6">
@@ -2707,7 +2922,7 @@
         <v>10</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -2721,7 +2936,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
@@ -2730,20 +2945,22 @@
   <sheetFormatPr defaultRowHeight="30.75"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="4" width="19.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="33.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="18" style="1" customWidth="1"/>
     <col min="6" max="6" width="19.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
+      <c r="A1" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
@@ -2756,7 +2973,7 @@
         <v>49</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>2</v>
@@ -2770,10 +2987,10 @@
         <v>5300270</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>85</v>
@@ -2794,6 +3011,9 @@
       <c r="B5" s="1">
         <v>5600135</v>
       </c>
+      <c r="D5" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="E5" s="1" t="s">
         <v>61</v>
       </c>
@@ -2816,6 +3036,12 @@
       <c r="B7" s="1">
         <v>5400013</v>
       </c>
+      <c r="C7" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="E7" s="1" t="s">
         <v>83</v>
       </c>
@@ -2842,6 +3068,20 @@
         <v>88</v>
       </c>
       <c r="F9" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="C10" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2859,7 +3099,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30.75"/>
@@ -2871,12 +3111,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
@@ -2935,7 +3175,7 @@
         <v>10</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2943,7 +3183,7 @@
         <v>10</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2951,7 +3191,7 @@
         <v>10</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -2961,61 +3201,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="30.75"/>
-  <cols>
-    <col min="1" max="2" width="25.140625" style="3" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="B2" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="B3" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="B4" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="B5" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="B6" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="B7" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
 </file>
--- a/ทะเบียนสินทรัพย์.xlsx
+++ b/ทะเบียนสินทรัพย์.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7800" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7800" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="จอ" sheetId="1" r:id="rId1"/>
     <sheet name="คอม" sheetId="2" r:id="rId2"/>
     <sheet name="Ain1" sheetId="3" r:id="rId3"/>
     <sheet name="NoteBook" sheetId="4" r:id="rId4"/>
+    <sheet name="IP" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="147">
   <si>
     <t>ทะเบียนอุปกรณ์ คอมพิวเตอร์</t>
   </si>
@@ -456,6 +457,18 @@
   </si>
   <si>
     <t>PR</t>
+  </si>
+  <si>
+    <t>ทะเบียน Mac Address</t>
+  </si>
+  <si>
+    <t>ชื่อพนักงาน</t>
+  </si>
+  <si>
+    <t>#2 Wifi</t>
+  </si>
+  <si>
+    <t>#1 Ethernet</t>
   </si>
 </sst>
 </file>
@@ -499,7 +512,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -507,11 +520,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -525,6 +547,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
@@ -1876,7 +1912,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -3099,7 +3135,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30.75"/>
@@ -3201,4 +3237,831 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F102"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="30.75"/>
+  <cols>
+    <col min="1" max="1" width="6.140625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="32.140625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="30.28515625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="17" style="6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="F2" s="10"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="10"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="9">
+        <v>2</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="10"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="9">
+        <v>3</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="10"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="9">
+        <v>4</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="10"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="9">
+        <v>5</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="10"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="9">
+        <v>6</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="10"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="9">
+        <v>7</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="10"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="9">
+        <v>8</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="10"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="9">
+        <v>9</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="10"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="9">
+        <v>10</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="10"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="9">
+        <v>11</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="10"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="9">
+        <v>12</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="10"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="9">
+        <v>13</v>
+      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="10"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="9">
+        <v>14</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="10"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="9">
+        <v>15</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="10"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="9">
+        <v>16</v>
+      </c>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="10"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="9">
+        <v>17</v>
+      </c>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="10"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="9">
+        <v>18</v>
+      </c>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="10"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="9">
+        <v>19</v>
+      </c>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="10"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="9">
+        <v>20</v>
+      </c>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="10"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="9">
+        <v>21</v>
+      </c>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="10"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="9">
+        <v>22</v>
+      </c>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="10"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="9">
+        <v>23</v>
+      </c>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="10"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="9">
+        <v>24</v>
+      </c>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="10"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="9">
+        <v>25</v>
+      </c>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="10"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="9">
+        <v>26</v>
+      </c>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="10"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="9">
+        <v>27</v>
+      </c>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="10"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="9">
+        <v>28</v>
+      </c>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="10"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="9">
+        <v>29</v>
+      </c>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="10"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="9">
+        <v>30</v>
+      </c>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="10"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="9">
+        <v>31</v>
+      </c>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="10"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="9">
+        <v>32</v>
+      </c>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="10"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="9">
+        <v>33</v>
+      </c>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="10"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="9">
+        <v>34</v>
+      </c>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="10"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="9">
+        <v>35</v>
+      </c>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="10"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="9">
+        <v>36</v>
+      </c>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="10"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="9">
+        <v>37</v>
+      </c>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="10"/>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="9">
+        <v>38</v>
+      </c>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="10"/>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="9">
+        <v>39</v>
+      </c>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="10"/>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="9">
+        <v>40</v>
+      </c>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="10"/>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="9">
+        <v>41</v>
+      </c>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="10"/>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="9">
+        <v>42</v>
+      </c>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="10"/>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="9">
+        <v>43</v>
+      </c>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="10"/>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="9">
+        <v>44</v>
+      </c>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="10"/>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="9">
+        <v>45</v>
+      </c>
+      <c r="B47" s="8"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="10"/>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="9">
+        <v>46</v>
+      </c>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="10"/>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="9">
+        <v>47</v>
+      </c>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="10"/>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="9">
+        <v>48</v>
+      </c>
+      <c r="B50" s="8"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="10"/>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="9">
+        <v>49</v>
+      </c>
+      <c r="B51" s="8"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="10"/>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="9">
+        <v>50</v>
+      </c>
+      <c r="B52" s="8"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="10"/>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="9">
+        <v>51</v>
+      </c>
+      <c r="B53" s="8"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="10"/>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="9">
+        <v>52</v>
+      </c>
+      <c r="B54" s="8"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="10"/>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="9">
+        <v>53</v>
+      </c>
+      <c r="B55" s="8"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="10"/>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="11">
+        <v>54</v>
+      </c>
+      <c r="B56" s="7"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="12"/>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" s="1">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <printOptions gridLines="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="78" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>